--- a/data/IKPA_MARET_2025.xlsx
+++ b/data/IKPA_MARET_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,29 +559,40 @@
           <t>Source</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Jenis Satker</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Total Pagu</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Tanggal Posting Revisi</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
+      <c r="B2" t="n">
+        <v>109</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>'007130</t>
+          <t>440507</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -603,10 +614,10 @@
         <v>100</v>
       </c>
       <c r="L2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>100</v>
@@ -615,11 +626,11 @@
         <v>100</v>
       </c>
       <c r="P2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -641,12 +652,12 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>KEJARI  OKU</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>KEJARI  OKU ('007130)</t>
+          <t>KEMENAG OKUS (440507)</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -654,29 +665,28 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>109</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>666503</t>
+          <t>401944</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -698,10 +708,10 @@
         <v>100</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>100</v>
@@ -710,11 +720,11 @@
         <v>100</v>
       </c>
       <c r="P3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -736,12 +746,12 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>PA MARTAPURA</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666503)</t>
+          <t>PA MARTAPURA (401944)</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -749,29 +759,28 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>33</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>109</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>527975</t>
+          <t>401945</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+          <t>PENGADILAN AGAMA MUARADUA</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -793,10 +802,10 @@
         <v>100</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>100</v>
@@ -805,11 +814,11 @@
         <v>100</v>
       </c>
       <c r="P4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -831,12 +840,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>KPPN BATURAJA</t>
+          <t>PA MUARADUA</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>KPPN BATURAJA (527975)</t>
+          <t>PA MUARADUA (401945)</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -844,29 +853,28 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>34</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>109</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>553792</t>
+          <t>402267</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
+          <t>PENGADILAN AGAMA BATURAJA</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -888,10 +896,10 @@
         <v>100</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>100</v>
@@ -900,11 +908,11 @@
         <v>100</v>
       </c>
       <c r="P5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -926,12 +934,12 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUS</t>
+          <t>PA BATURAJA</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUS (553792)</t>
+          <t>PA BATURAJA (402267)</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -939,29 +947,28 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>109</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>'007190</t>
+          <t>402268</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU TIMUR</t>
+          <t>PENGADILAN AGAMA BATURAJA</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1021,12 +1028,12 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>KEJARI OKUT</t>
+          <t>PA BATURAJA</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>KEJARI OKUT ('007190)</t>
+          <t>PA BATURAJA (402268)</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1034,36 +1041,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>36</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>109</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>597558</t>
+          <t>440505</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>99.67</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
@@ -1084,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>100</v>
+        <v>99.34</v>
       </c>
       <c r="O7" t="n">
         <v>100</v>
       </c>
       <c r="P7" t="n">
-        <v>80</v>
+        <v>79.93000000000001</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1101,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>100</v>
+        <v>99.92</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1116,12 +1122,12 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS (597558)</t>
+          <t>KEMENAG OKUS (440505)</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1129,36 +1135,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>37</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>060</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>109</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>641681</t>
+          <t>403409</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>POLRES OGAN KOMERING ULU</t>
+          <t>PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>100</v>
@@ -1170,7 +1175,7 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>100</v>
+        <v>99.14</v>
       </c>
       <c r="L8" t="n">
         <v>100</v>
@@ -1185,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="n">
-        <v>100</v>
+        <v>99.83</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1196,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>100</v>
+        <v>99.83</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1211,12 +1216,12 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>POLRES OKU</t>
+          <t>PA MARTAPURA</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>POLRES OKU (641681)</t>
+          <t>PA MARTAPURA (403409)</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1224,36 +1229,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>38</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>076</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>656553</t>
+          <t>527975</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU</t>
+          <t>KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>99.62</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
@@ -1265,7 +1269,7 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1280,18 +1284,18 @@
         <v>100</v>
       </c>
       <c r="P9" t="n">
-        <v>70</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>100</v>
+        <v>99.81</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1306,12 +1310,12 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>KPU OKU</t>
+          <t>KPPN BATURAJA</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>KPU OKU (656553)</t>
+          <t>KPPN BATURAJA (527975)</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1319,36 +1323,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>39</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>076</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>109</v>
+      </c>
+      <c r="C10" t="n">
+        <v>137</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>656574</t>
+          <t>692339</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
+          <t>RUTAN KELAS II B BATURAJA</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
+        <v>99.77</v>
       </c>
       <c r="H10" t="n">
         <v>100</v>
@@ -1360,13 +1363,13 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>99.06</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>100</v>
@@ -1375,18 +1378,18 @@
         <v>100</v>
       </c>
       <c r="P10" t="n">
-        <v>80</v>
+        <v>99.81</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>100</v>
+        <v>99.81</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1401,12 +1404,12 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>KPU OKUS</t>
+          <t>RUTAN BATURAJA</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>KPU OKUS (656574)</t>
+          <t>RUTAN BATURAJA (692339)</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1414,36 +1417,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>109</v>
+      </c>
+      <c r="C11" t="n">
+        <v>60</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>661192</t>
+          <t>665307</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
+          <t>POLRES OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>100</v>
+        <v>99.39</v>
       </c>
       <c r="H11" t="n">
         <v>100</v>
@@ -1455,13 +1457,13 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
+        <v>97.56</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>100</v>
@@ -1470,18 +1472,18 @@
         <v>100</v>
       </c>
       <c r="P11" t="n">
-        <v>80</v>
+        <v>99.51000000000001</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>100</v>
+        <v>99.51000000000001</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1496,12 +1498,12 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS</t>
+          <t>POLRES OKUS</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS (661192)</t>
+          <t>POLRES OKUS (665307)</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1509,36 +1511,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>41</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>060</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>109</v>
+      </c>
+      <c r="C12" t="n">
+        <v>54</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>665292</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>POLRES OGAN KOMERING ULU TIMUR</t>
+          <t>BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="H12" t="n">
         <v>100</v>
@@ -1550,7 +1551,7 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
+        <v>96.8</v>
       </c>
       <c r="L12" t="n">
         <v>100</v>
@@ -1565,7 +1566,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="n">
-        <v>100</v>
+        <v>99.36</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1576,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>100</v>
+        <v>99.36</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1591,12 +1592,12 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>POLRES OKUT</t>
+          <t>BPS OKUS</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>POLRES OKUT (665292)</t>
+          <t>BPS OKUS (667215)</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1604,36 +1605,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>42</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>060</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>109</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>665307</t>
+          <t>410574</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>POLRES OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR PELAYANAN PAJAK PRATAMA BATURAJA</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>99.06</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
@@ -1645,7 +1645,7 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>100</v>
+        <v>96.23999999999999</v>
       </c>
       <c r="L13" t="n">
         <v>100</v>
@@ -1660,7 +1660,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="n">
-        <v>100</v>
+        <v>99.25</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>100</v>
+        <v>99.25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>POLRES OKUS</t>
+          <t>KPP BATURAJA</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>POLRES OKUS (665307)</t>
+          <t>KPP BATURAJA (410574)</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1699,36 +1699,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>109</v>
+      </c>
+      <c r="C14" t="n">
+        <v>54</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>666501</t>
+          <t>668529</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
+        <v>98.89</v>
       </c>
       <c r="H14" t="n">
         <v>100</v>
@@ -1740,13 +1739,13 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>100</v>
+        <v>95.56999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
         <v>100</v>
@@ -1755,18 +1754,18 @@
         <v>100</v>
       </c>
       <c r="P14" t="n">
-        <v>80</v>
+        <v>99.11</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>100</v>
+        <v>99.11</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1781,12 +1780,12 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BPS OKUT</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666501)</t>
+          <t>BPS OKUT (668529)</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -1794,36 +1793,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>44</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>109</v>
+      </c>
+      <c r="C15" t="n">
+        <v>54</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>666502</t>
+          <t>428258</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="H15" t="n">
         <v>100</v>
@@ -1835,13 +1833,13 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>100</v>
+        <v>94.16</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
         <v>100</v>
@@ -1850,18 +1848,18 @@
         <v>100</v>
       </c>
       <c r="P15" t="n">
-        <v>80</v>
+        <v>98.83</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>100</v>
+        <v>98.83</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1876,12 +1874,12 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BPS OKU</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666502)</t>
+          <t>BPS OKU (428258)</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -1889,33 +1887,32 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>46</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>109</v>
+      </c>
+      <c r="C16" t="n">
+        <v>60</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>666504</t>
+          <t>641681</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>POLRES OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>96.11</v>
       </c>
       <c r="G16" t="n">
         <v>100</v>
@@ -1927,16 +1924,16 @@
         <v>100</v>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>92.20999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>100</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
         <v>100</v>
@@ -1945,18 +1942,18 @@
         <v>100</v>
       </c>
       <c r="P16" t="n">
-        <v>80</v>
+        <v>98.83</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>100</v>
+        <v>98.83</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1971,12 +1968,12 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>POLRES OKU</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666504)</t>
+          <t>POLRES OKU (641681)</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -1984,20 +1981,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>31</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>109</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2010,10 +2006,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>96.95</v>
       </c>
       <c r="G17" t="n">
-        <v>100</v>
+        <v>97.13</v>
       </c>
       <c r="H17" t="n">
         <v>100</v>
@@ -2022,7 +2018,7 @@
         <v>100</v>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>100</v>
@@ -2034,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>100</v>
+        <v>94.25</v>
       </c>
       <c r="O17" t="n">
         <v>100</v>
       </c>
       <c r="P17" t="n">
-        <v>80</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2051,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>100</v>
+        <v>98.14</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2079,36 +2075,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>47</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>109</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>666505</t>
+          <t>403410</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>PENGADILAN AGAMA MUARADUA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>95.86</v>
       </c>
       <c r="G18" t="n">
-        <v>100</v>
+        <v>98.69</v>
       </c>
       <c r="H18" t="n">
         <v>100</v>
@@ -2117,36 +2112,36 @@
         <v>100</v>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>91.72</v>
       </c>
       <c r="K18" t="n">
-        <v>100</v>
+        <v>97.59</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>100</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="O18" t="n">
         <v>100</v>
       </c>
       <c r="P18" t="n">
-        <v>80</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>100</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2161,12 +2156,12 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>PA  MUARADUA</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666505)</t>
+          <t>PA  MUARADUA (403410)</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2174,36 +2169,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>48</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>109</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>666507</t>
+          <t>440504</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>97.03</v>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>97.86</v>
       </c>
       <c r="H19" t="n">
         <v>100</v>
@@ -2212,10 +2206,10 @@
         <v>100</v>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>94.06</v>
       </c>
       <c r="K19" t="n">
-        <v>100</v>
+        <v>95.72</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2230,7 +2224,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="n">
-        <v>80</v>
+        <v>78.25</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -2241,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>100</v>
+        <v>97.81999999999999</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2256,12 +2250,12 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666507)</t>
+          <t>KEMENAG OKUS (440504)</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2269,36 +2263,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>49</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>109</v>
+      </c>
+      <c r="C20" t="n">
+        <v>137</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>692625</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>BAPAS KELAS II OKU INDUK</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>98.22</v>
       </c>
       <c r="H20" t="n">
         <v>100</v>
@@ -2307,16 +2300,16 @@
         <v>100</v>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>100</v>
@@ -2325,18 +2318,18 @@
         <v>100</v>
       </c>
       <c r="P20" t="n">
-        <v>100</v>
+        <v>78.2</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>100</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2351,12 +2344,12 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>BPS OKUS</t>
+          <t>BAPAS OKU INDUK</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>BPS OKUS (667215)</t>
+          <t>BAPAS OKU INDUK (692625)</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2364,36 +2357,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>50</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>109</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>668529</t>
+          <t>418456</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>93.63</v>
       </c>
       <c r="G21" t="n">
-        <v>100</v>
+        <v>99.98</v>
       </c>
       <c r="H21" t="n">
         <v>100</v>
@@ -2402,16 +2394,16 @@
         <v>100</v>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>87.26000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>100</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>100</v>
@@ -2420,18 +2412,18 @@
         <v>100</v>
       </c>
       <c r="P21" t="n">
-        <v>100</v>
+        <v>78.08</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2446,12 +2438,12 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>BPS OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>BPS OKUT (668529)</t>
+          <t>KEMENAG OKU (418456)</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2459,36 +2451,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>51</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>056</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>109</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>669055</t>
+          <t>553099</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>94.48</v>
       </c>
       <c r="G22" t="n">
-        <v>100</v>
+        <v>99.03</v>
       </c>
       <c r="H22" t="n">
         <v>100</v>
@@ -2497,10 +2488,10 @@
         <v>100</v>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>88.95</v>
       </c>
       <c r="K22" t="n">
-        <v>100</v>
+        <v>98.72</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2509,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>100</v>
+        <v>99.33</v>
       </c>
       <c r="O22" t="n">
         <v>100</v>
       </c>
       <c r="P22" t="n">
-        <v>80</v>
+        <v>78.02</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2526,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>100</v>
+        <v>97.52</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2541,12 +2532,12 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>BPN OKUT</t>
+          <t>MTSN 3 OKUT</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>BPN OKUT (669055)</t>
+          <t>MTSN 3 OKUT (553099)</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2554,36 +2545,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>52</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>056</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>109</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>670561</t>
+          <t>111071</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>93.95</v>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="H23" t="n">
         <v>100</v>
@@ -2592,10 +2582,10 @@
         <v>100</v>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>100</v>
+        <v>99.08</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2610,7 +2600,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2621,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2636,12 +2626,12 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>BPN OKUS</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>BPN OKUS (670561)</t>
+          <t>KEMENAG OKUT (111071)</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2649,36 +2639,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>53</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>024</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>109</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>690801</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>92.02</v>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>99.73</v>
       </c>
       <c r="H24" t="n">
         <v>100</v>
@@ -2687,16 +2676,16 @@
         <v>100</v>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="L24" t="n">
         <v>100</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
         <v>100</v>
@@ -2705,18 +2694,18 @@
         <v>100</v>
       </c>
       <c r="P24" t="n">
-        <v>90</v>
+        <v>97.39</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>100</v>
+        <v>97.39</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2731,12 +2720,12 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS</t>
+          <t>KEJARI  OKU</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS (690801)</t>
+          <t>KEJARI  OKU ('007130)</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -2744,48 +2733,47 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>54</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>109</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>692334</t>
+          <t>685001</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LAPAS KELAS II B MUARA DUA</t>
+          <t>PUSLATPUR KODIKLATAD</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>92.17</v>
       </c>
       <c r="G25" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>98.72</v>
       </c>
       <c r="I25" t="n">
         <v>100</v>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>84.34</v>
       </c>
       <c r="K25" t="n">
-        <v>100</v>
+        <v>99.19</v>
       </c>
       <c r="L25" t="n">
         <v>100</v>
@@ -2797,10 +2785,10 @@
         <v>100</v>
       </c>
       <c r="O25" t="n">
-        <v>100</v>
+        <v>98.72</v>
       </c>
       <c r="P25" t="n">
-        <v>100</v>
+        <v>97.17</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2811,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>100</v>
+        <v>97.17</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2826,12 +2814,12 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA</t>
+          <t>PUSLATPUR AD</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA (692334)</t>
+          <t>PUSLATPUR AD (685001)</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -2839,36 +2827,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>55</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>109</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>692339</t>
+          <t>007190</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>RUTAN KELAS II B BATURAJA</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>91.48</v>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>99.63</v>
       </c>
       <c r="H26" t="n">
         <v>100</v>
@@ -2877,10 +2864,10 @@
         <v>100</v>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>82.95</v>
       </c>
       <c r="K26" t="n">
-        <v>100</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="L26" t="n">
         <v>100</v>
@@ -2895,7 +2882,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="n">
-        <v>100</v>
+        <v>97.14</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2906,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>100</v>
+        <v>97.14</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2921,12 +2908,12 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>RUTAN BATURAJA</t>
+          <t>KEJARI OKUT</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>RUTAN BATURAJA (692339)</t>
+          <t>KEJARI OKUT ('007190)</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -2934,36 +2921,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>56</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>109</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>692340</t>
+          <t>597480</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LAPAS KELAS II B MARTAPURA</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>96.33</v>
       </c>
       <c r="G27" t="n">
-        <v>100</v>
+        <v>95.09</v>
       </c>
       <c r="H27" t="n">
         <v>100</v>
@@ -2972,36 +2958,36 @@
         <v>100</v>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>92.66</v>
       </c>
       <c r="K27" t="n">
-        <v>100</v>
+        <v>97.44</v>
       </c>
       <c r="L27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>100</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="O27" t="n">
         <v>100</v>
       </c>
       <c r="P27" t="n">
-        <v>100</v>
+        <v>77.66</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>100</v>
+        <v>97.08</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3016,12 +3002,12 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA</t>
+          <t>MTSN 4 OKUT</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA (692340)</t>
+          <t>MTSN 4 OKUT (597480)</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3029,33 +3015,32 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>57</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>109</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>692625</t>
+          <t>098963</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BAPAS KELAS II OKU INDUK</t>
+          <t>PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -3067,16 +3052,16 @@
         <v>100</v>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>80.47</v>
       </c>
       <c r="K28" t="n">
         <v>100</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
         <v>100</v>
@@ -3085,18 +3070,18 @@
         <v>100</v>
       </c>
       <c r="P28" t="n">
-        <v>80</v>
+        <v>97.06999999999999</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>100</v>
+        <v>97.06999999999999</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3111,12 +3096,12 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>BAPAS OKU INDUK</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>BAPAS OKU INDUK (692625)</t>
+          <t>PN BATURAJA ('098963)</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3124,33 +3109,32 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>58</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>109</v>
+      </c>
+      <c r="C29" t="n">
+        <v>56</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>692725</t>
+          <t>670561</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>RUPBASAN KELAS II BATURAJA</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>89.36</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -3162,7 +3146,7 @@
         <v>100</v>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>100</v>
@@ -3180,7 +3164,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="n">
-        <v>100</v>
+        <v>96.81</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3191,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>100</v>
+        <v>96.81</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3206,12 +3190,12 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA</t>
+          <t>BPN OKUS</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA (692725)</t>
+          <t>BPN OKUS (670561)</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3219,36 +3203,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>109</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>440507</t>
+          <t>418471</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>92.06</v>
       </c>
       <c r="G30" t="n">
-        <v>100</v>
+        <v>99.55</v>
       </c>
       <c r="H30" t="n">
         <v>100</v>
@@ -3257,10 +3240,10 @@
         <v>100</v>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>84.12</v>
       </c>
       <c r="K30" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3275,7 +3258,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="n">
-        <v>80</v>
+        <v>77.44</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3286,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>100</v>
+        <v>96.8</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3301,12 +3284,12 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>MTSN 2 OKUT</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440507)</t>
+          <t>MTSN 2 OKUT (418471)</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3314,36 +3297,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>35</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>109</v>
+      </c>
+      <c r="C31" t="n">
+        <v>56</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>574370</t>
+          <t>669055</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>92.19</v>
       </c>
       <c r="G31" t="n">
-        <v>100</v>
+        <v>98.08</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
@@ -3352,36 +3334,36 @@
         <v>100</v>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>84.38</v>
       </c>
       <c r="K31" t="n">
-        <v>100</v>
+        <v>97.67</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>100</v>
+        <v>94.63</v>
       </c>
       <c r="O31" t="n">
         <v>100</v>
       </c>
       <c r="P31" t="n">
-        <v>80</v>
+        <v>96.65000000000001</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>100</v>
+        <v>96.65000000000001</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3396,12 +3378,12 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUS</t>
+          <t>BPN OKUT</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUS (574370)</t>
+          <t>BPN OKUT (669055)</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -3409,36 +3391,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>109</v>
+      </c>
+      <c r="C32" t="n">
+        <v>60</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>440505</t>
+          <t>665292</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>POLRES OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>90.55</v>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="H32" t="n">
         <v>100</v>
@@ -3447,16 +3428,16 @@
         <v>100</v>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>100</v>
+        <v>97.28</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
         <v>100</v>
@@ -3465,18 +3446,18 @@
         <v>100</v>
       </c>
       <c r="P32" t="n">
-        <v>80</v>
+        <v>96.62</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>100</v>
+        <v>96.62</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3491,12 +3472,12 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>POLRES OKUT</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440505)</t>
+          <t>POLRES OKUT (665292)</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -3504,36 +3485,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>109</v>
+      </c>
+      <c r="C33" t="n">
+        <v>76</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>410574</t>
+          <t>656574</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KANTOR PELAYANAN PAJAK PRATAMA BATURAJA</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>92.69</v>
       </c>
       <c r="G33" t="n">
-        <v>100</v>
+        <v>97.27</v>
       </c>
       <c r="H33" t="n">
         <v>100</v>
@@ -3542,36 +3522,36 @@
         <v>100</v>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>85.37</v>
       </c>
       <c r="K33" t="n">
-        <v>100</v>
+        <v>99.94</v>
       </c>
       <c r="L33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>100</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="O33" t="n">
         <v>100</v>
       </c>
       <c r="P33" t="n">
-        <v>90</v>
+        <v>77.25</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>100</v>
+        <v>96.56999999999999</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3586,12 +3566,12 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>KPP BATURAJA</t>
+          <t>KPU OKUS</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>KPP BATURAJA (410574)</t>
+          <t>KPU OKUS (656574)</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -3599,36 +3579,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>109</v>
+      </c>
+      <c r="C34" t="n">
+        <v>25</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>'007208</t>
+          <t>666504</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>100</v>
+        <v>91.31</v>
       </c>
       <c r="H34" t="n">
         <v>100</v>
@@ -3640,33 +3619,33 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>100</v>
+        <v>89.87</v>
       </c>
       <c r="L34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>100</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="O34" t="n">
         <v>100</v>
       </c>
       <c r="P34" t="n">
-        <v>100</v>
+        <v>77.25</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>100</v>
+        <v>96.56</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3681,12 +3660,12 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>KEJARI  OKUS</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>KEJARI  OKUS ('007208)</t>
+          <t>KEMENAG OKUT (666504)</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -3694,33 +3673,32 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>109</v>
+      </c>
+      <c r="C35" t="n">
+        <v>25</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>'098963</t>
+          <t>666505</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PENGADILAN NEGERI BATURAJA</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>90.83</v>
       </c>
       <c r="G35" t="n">
         <v>100</v>
@@ -3732,13 +3710,13 @@
         <v>100</v>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="K35" t="n">
         <v>100</v>
       </c>
       <c r="L35" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3750,18 +3728,18 @@
         <v>100</v>
       </c>
       <c r="P35" t="n">
-        <v>90</v>
+        <v>77.25</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>100</v>
+        <v>96.56</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3776,12 +3754,12 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>PN BATURAJA ('098963)</t>
+          <t>KEMENAG OKUT (666505)</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -3789,36 +3767,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>109</v>
+      </c>
+      <c r="C36" t="n">
+        <v>137</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>'099228</t>
+          <t>692334</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PENGADILAN NEGERI BATURAJA</t>
+          <t>LAPAS KELAS II B MUARA DUA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>89.83</v>
       </c>
       <c r="G36" t="n">
-        <v>100</v>
+        <v>99.33</v>
       </c>
       <c r="H36" t="n">
         <v>100</v>
@@ -3827,16 +3804,16 @@
         <v>100</v>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>79.66</v>
       </c>
       <c r="K36" t="n">
-        <v>100</v>
+        <v>97.33</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
         <v>100</v>
@@ -3845,18 +3822,18 @@
         <v>100</v>
       </c>
       <c r="P36" t="n">
-        <v>80</v>
+        <v>96.42</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>100</v>
+        <v>96.42</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3871,12 +3848,12 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>LAPAS MUARA DUA</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>PN BATURAJA ('099228)</t>
+          <t>LAPAS MUARA DUA (692334)</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -3884,36 +3861,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>109</v>
+      </c>
+      <c r="C37" t="n">
+        <v>76</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>111071</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>90.91</v>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>97.37</v>
       </c>
       <c r="H37" t="n">
         <v>100</v>
@@ -3922,13 +3898,13 @@
         <v>100</v>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>100</v>
+        <v>98.77</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>93.33</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3940,18 +3916,18 @@
         <v>100</v>
       </c>
       <c r="P37" t="n">
-        <v>80</v>
+        <v>86.36</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>100</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3966,12 +3942,12 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KPU OKUT</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (111071)</t>
+          <t>KPU OKUT (656560)</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -3979,48 +3955,47 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>066</t>
-        </is>
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>109</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>111079</t>
+          <t>661192</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>92.33</v>
       </c>
       <c r="G38" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="H38" t="n">
-        <v>100</v>
+        <v>97.29000000000001</v>
       </c>
       <c r="I38" t="n">
         <v>100</v>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>84.66</v>
       </c>
       <c r="K38" t="n">
-        <v>100</v>
+        <v>98.59</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -4029,13 +4004,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="O38" t="n">
-        <v>100</v>
+        <v>97.29000000000001</v>
       </c>
       <c r="P38" t="n">
-        <v>80</v>
+        <v>76.72</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -4046,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>100</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4061,12 +4036,12 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>BNN OKUT</t>
+          <t>MTSN 4 OKUS</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>BNN OKUT (111079)</t>
+          <t>MTSN 4 OKUS (661192)</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4074,36 +4049,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>012</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>109</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>344894</t>
+          <t>424245</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>RUMKIT TK. III 02.06.02 DR. NOESMIR BATURAJA KESDAM II/SWJ</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>100</v>
+        <v>99.58</v>
       </c>
       <c r="H39" t="n">
         <v>100</v>
@@ -4112,10 +4086,10 @@
         <v>100</v>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>100</v>
+        <v>98.73999999999999</v>
       </c>
       <c r="L39" t="n">
         <v>100</v>
@@ -4124,24 +4098,24 @@
         <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>100</v>
+        <v>99.58</v>
       </c>
       <c r="O39" t="n">
         <v>100</v>
       </c>
       <c r="P39" t="n">
-        <v>90</v>
+        <v>95.81</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>100</v>
+        <v>95.81</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4156,12 +4130,12 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR</t>
+          <t>MAN 1 OKU</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR (344894)</t>
+          <t>MAN 1 OKU (424245)</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4169,36 +4143,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>109</v>
+      </c>
+      <c r="C40" t="n">
+        <v>137</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>401944</t>
+          <t>692340</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MARTAPURA</t>
+          <t>LAPAS KELAS II B MARTAPURA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>87.12</v>
       </c>
       <c r="G40" t="n">
-        <v>100</v>
+        <v>99.51000000000001</v>
       </c>
       <c r="H40" t="n">
         <v>100</v>
@@ -4207,10 +4180,10 @@
         <v>100</v>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>74.23999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>100</v>
+        <v>98.03</v>
       </c>
       <c r="L40" t="n">
         <v>100</v>
@@ -4225,7 +4198,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="n">
-        <v>100</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4236,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>100</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -4251,12 +4224,12 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>PA MARTAPURA</t>
+          <t>LAPAS MARTAPURA</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>PA MARTAPURA (401944)</t>
+          <t>LAPAS MARTAPURA (692340)</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -4264,36 +4237,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>109</v>
+      </c>
+      <c r="C41" t="n">
+        <v>25</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>401945</t>
+          <t>440502</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MUARADUA</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>100</v>
+        <v>96.94</v>
       </c>
       <c r="H41" t="n">
         <v>100</v>
@@ -4302,36 +4274,36 @@
         <v>100</v>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>80.52</v>
       </c>
       <c r="K41" t="n">
         <v>100</v>
       </c>
       <c r="L41" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>100</v>
+        <v>93.88</v>
       </c>
       <c r="O41" t="n">
         <v>100</v>
       </c>
       <c r="P41" t="n">
-        <v>100</v>
+        <v>76.47</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>100</v>
+        <v>95.58</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -4346,12 +4318,12 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>PA MUARADUA</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>PA MUARADUA (401945)</t>
+          <t>KEMENAG OKUS (440502)</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -4359,24 +4331,23 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>29</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>109</v>
+      </c>
+      <c r="C42" t="n">
+        <v>25</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>440504</t>
+          <t>440503</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4385,22 +4356,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>96.78</v>
       </c>
       <c r="G42" t="n">
-        <v>100</v>
+        <v>96.38</v>
       </c>
       <c r="H42" t="n">
-        <v>100</v>
+        <v>95.25</v>
       </c>
       <c r="I42" t="n">
         <v>100</v>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>93.56</v>
       </c>
       <c r="K42" t="n">
-        <v>100</v>
+        <v>92.75</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4412,10 +4383,10 @@
         <v>100</v>
       </c>
       <c r="O42" t="n">
-        <v>100</v>
+        <v>95.25</v>
       </c>
       <c r="P42" t="n">
-        <v>80</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4426,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -4446,7 +4417,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440504)</t>
+          <t>KEMENAG OKUS (440503)</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -4454,36 +4425,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>109</v>
+      </c>
+      <c r="C43" t="n">
+        <v>76</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>402268</t>
+          <t>656553</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA BATURAJA</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>95.16</v>
       </c>
       <c r="G43" t="n">
-        <v>100</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>100</v>
@@ -4492,36 +4462,36 @@
         <v>100</v>
       </c>
       <c r="J43" t="n">
-        <v>100</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>100</v>
+        <v>99.53</v>
       </c>
       <c r="L43" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>100</v>
+        <v>79.27</v>
       </c>
       <c r="O43" t="n">
         <v>100</v>
       </c>
       <c r="P43" t="n">
-        <v>100</v>
+        <v>76.38</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>100</v>
+        <v>95.48</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -4536,12 +4506,12 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>PA BATURAJA</t>
+          <t>KPU OKU</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>PA BATURAJA (402268)</t>
+          <t>KPU OKU (656553)</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -4549,36 +4519,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>13</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>109</v>
+      </c>
+      <c r="C44" t="n">
+        <v>25</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>403409</t>
+          <t>418462</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MARTAPURA</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>90.77</v>
       </c>
       <c r="G44" t="n">
-        <v>100</v>
+        <v>97.67</v>
       </c>
       <c r="H44" t="n">
         <v>100</v>
@@ -4587,36 +4556,36 @@
         <v>100</v>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>100</v>
+        <v>95.7</v>
       </c>
       <c r="L44" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>100</v>
+        <v>99.64</v>
       </c>
       <c r="O44" t="n">
         <v>100</v>
       </c>
       <c r="P44" t="n">
-        <v>100</v>
+        <v>76.34</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>100</v>
+        <v>95.42</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4631,12 +4600,12 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>PA MARTAPURA</t>
+          <t>MTSN 2 OKUS</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>PA MARTAPURA (403409)</t>
+          <t>MTSN 2 OKUS (418462)</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -4644,36 +4613,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>14</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>109</v>
+      </c>
+      <c r="C45" t="n">
+        <v>25</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>403410</t>
+          <t>424967</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MUARADUA</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>91.05</v>
       </c>
       <c r="G45" t="n">
-        <v>100</v>
+        <v>97.52</v>
       </c>
       <c r="H45" t="n">
         <v>100</v>
@@ -4682,10 +4650,10 @@
         <v>100</v>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>82.09</v>
       </c>
       <c r="K45" t="n">
-        <v>100</v>
+        <v>90.06999999999999</v>
       </c>
       <c r="L45" t="n">
         <v>100</v>
@@ -4700,7 +4668,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="n">
-        <v>100</v>
+        <v>95.33</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4711,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>100</v>
+        <v>95.33</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4726,12 +4694,12 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>PA  MUARADUA</t>
+          <t>MTSN 1 OKUT</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>PA  MUARADUA (403410)</t>
+          <t>MTSN 1 OKUT (424967)</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -4739,48 +4707,47 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>109</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>402267</t>
+          <t>007208</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA BATURAJA</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>100</v>
+        <v>99.56</v>
       </c>
       <c r="H46" t="n">
-        <v>100</v>
+        <v>93.67</v>
       </c>
       <c r="I46" t="n">
         <v>100</v>
       </c>
       <c r="J46" t="n">
-        <v>100</v>
+        <v>80.7</v>
       </c>
       <c r="K46" t="n">
-        <v>100</v>
+        <v>98.22</v>
       </c>
       <c r="L46" t="n">
         <v>100</v>
@@ -4792,10 +4759,10 @@
         <v>100</v>
       </c>
       <c r="O46" t="n">
-        <v>100</v>
+        <v>93.67</v>
       </c>
       <c r="P46" t="n">
-        <v>100</v>
+        <v>95.17</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4806,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>100</v>
+        <v>95.17</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4821,12 +4788,12 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>PA BATURAJA</t>
+          <t>KEJARI  OKUS</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>PA BATURAJA (402267)</t>
+          <t>KEJARI  OKUS ('007208)</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -4834,36 +4801,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>16</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>109</v>
+      </c>
+      <c r="C47" t="n">
+        <v>56</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>418457</t>
+          <t>431142</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>84.33</v>
       </c>
       <c r="G47" t="n">
-        <v>100</v>
+        <v>99.61</v>
       </c>
       <c r="H47" t="n">
         <v>100</v>
@@ -4872,36 +4838,36 @@
         <v>100</v>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>68.65000000000001</v>
       </c>
       <c r="K47" t="n">
         <v>100</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>100</v>
+        <v>98.42</v>
       </c>
       <c r="O47" t="n">
         <v>100</v>
       </c>
       <c r="P47" t="n">
-        <v>80</v>
+        <v>95.14</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R47" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>100</v>
+        <v>95.14</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4916,12 +4882,12 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>BPN OKU</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418457)</t>
+          <t>BPN OKU (431142)</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -4929,36 +4895,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>109</v>
+      </c>
+      <c r="C48" t="n">
+        <v>115</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>424967</t>
+          <t>686503</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
+          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>87.98</v>
       </c>
       <c r="G48" t="n">
-        <v>100</v>
+        <v>97.94</v>
       </c>
       <c r="H48" t="n">
         <v>100</v>
@@ -4967,7 +4932,7 @@
         <v>100</v>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>75.95</v>
       </c>
       <c r="K48" t="n">
         <v>100</v>
@@ -4979,13 +4944,13 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>100</v>
+        <v>95.88</v>
       </c>
       <c r="O48" t="n">
         <v>100</v>
       </c>
       <c r="P48" t="n">
-        <v>80</v>
+        <v>75.98</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4996,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>100</v>
+        <v>94.98</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5011,12 +4976,12 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUT</t>
+          <t>BAWASLU OKUS</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUT (424967)</t>
+          <t>BAWASLU OKUS (686503)</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5024,74 +4989,73 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>28</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>109</v>
+      </c>
+      <c r="C49" t="n">
+        <v>12</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>440502</t>
+          <t>344894</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>RUMKIT TK. III 02.06.02 DR. NOESMIR BATURAJA KESDAM II/SWJ</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>86.95</v>
       </c>
       <c r="G49" t="n">
-        <v>100</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>100</v>
+        <v>96.37</v>
       </c>
       <c r="I49" t="n">
         <v>100</v>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>73.89</v>
       </c>
       <c r="K49" t="n">
-        <v>100</v>
+        <v>98.58</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>100</v>
+        <v>99.38</v>
       </c>
       <c r="O49" t="n">
-        <v>100</v>
+        <v>96.37</v>
       </c>
       <c r="P49" t="n">
-        <v>80</v>
+        <v>94.83</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R49" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>100</v>
+        <v>94.83</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -5106,12 +5070,12 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>RUMKIT NOESMIR</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440502)</t>
+          <t>RUMKIT NOESMIR (344894)</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -5119,20 +5083,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>109</v>
+      </c>
+      <c r="C50" t="n">
+        <v>25</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5145,10 +5108,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>87.31</v>
       </c>
       <c r="G50" t="n">
-        <v>100</v>
+        <v>99.09</v>
       </c>
       <c r="H50" t="n">
         <v>100</v>
@@ -5157,10 +5120,10 @@
         <v>100</v>
       </c>
       <c r="J50" t="n">
-        <v>100</v>
+        <v>74.62</v>
       </c>
       <c r="K50" t="n">
-        <v>100</v>
+        <v>98.18000000000001</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -5175,7 +5138,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="n">
-        <v>80</v>
+        <v>75.83</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5186,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>100</v>
+        <v>94.79000000000001</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5214,36 +5177,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>109</v>
+      </c>
+      <c r="C51" t="n">
+        <v>25</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>428258</t>
+          <t>666503</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>100</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>100</v>
@@ -5252,16 +5214,16 @@
         <v>100</v>
       </c>
       <c r="J51" t="n">
-        <v>100</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>100</v>
+        <v>93.51000000000001</v>
       </c>
       <c r="L51" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>100</v>
@@ -5270,18 +5232,18 @@
         <v>100</v>
       </c>
       <c r="P51" t="n">
-        <v>100</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>100</v>
+        <v>94.78</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -5296,12 +5258,12 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>BPS OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>BPS OKU (428258)</t>
+          <t>KEMENAG OKUT (666503)</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -5309,36 +5271,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>25</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>109</v>
+      </c>
+      <c r="C52" t="n">
+        <v>137</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>426066</t>
+          <t>692725</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
+          <t>RUPBASAN KELAS II BATURAJA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>88.45</v>
       </c>
       <c r="G52" t="n">
-        <v>100</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>100</v>
@@ -5347,36 +5308,36 @@
         <v>100</v>
       </c>
       <c r="J52" t="n">
-        <v>100</v>
+        <v>76.89</v>
       </c>
       <c r="K52" t="n">
-        <v>100</v>
+        <v>95.37</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>100</v>
+        <v>91.67</v>
       </c>
       <c r="O52" t="n">
         <v>100</v>
       </c>
       <c r="P52" t="n">
-        <v>80</v>
+        <v>94.77</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R52" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>100</v>
+        <v>94.77</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -5391,12 +5352,12 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT</t>
+          <t>RUPBASAN BATURAJA</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT (426066)</t>
+          <t>RUPBASAN BATURAJA (692725)</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -5404,36 +5365,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>24</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>109</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>426050</t>
+          <t>426066</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>88.72</v>
       </c>
       <c r="G53" t="n">
-        <v>100</v>
+        <v>96.92</v>
       </c>
       <c r="H53" t="n">
         <v>100</v>
@@ -5442,36 +5402,36 @@
         <v>100</v>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>77.43000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>100</v>
+        <v>92.39</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>95.55</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>100</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="O53" t="n">
         <v>100</v>
       </c>
       <c r="P53" t="n">
-        <v>80</v>
+        <v>94.62</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R53" t="n">
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>100</v>
+        <v>94.62</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -5486,12 +5446,12 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>MAN 1 OKUT</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU (426050)</t>
+          <t>MAN 1 OKUT (426066)</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -5499,48 +5459,47 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>056</t>
-        </is>
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>431142</t>
+          <t>662127</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>92.20999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>100</v>
+        <v>98.23999999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>100</v>
+        <v>94.87</v>
       </c>
       <c r="I54" t="n">
         <v>100</v>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>84.41</v>
       </c>
       <c r="K54" t="n">
-        <v>100</v>
+        <v>96.48</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -5552,10 +5511,10 @@
         <v>100</v>
       </c>
       <c r="O54" t="n">
-        <v>100</v>
+        <v>94.87</v>
       </c>
       <c r="P54" t="n">
-        <v>80</v>
+        <v>75.67</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -5566,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>100</v>
+        <v>94.59</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -5581,12 +5540,12 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>BPN OKU</t>
+          <t>MAN 1 OKUS</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>BPN OKU (431142)</t>
+          <t>MAN 1 OKUS (662127)</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -5594,36 +5553,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>22</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>109</v>
+      </c>
+      <c r="C55" t="n">
+        <v>25</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>424245</t>
+          <t>426050</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>100</v>
+        <v>87.03</v>
       </c>
       <c r="G55" t="n">
-        <v>100</v>
+        <v>96.95</v>
       </c>
       <c r="H55" t="n">
         <v>100</v>
@@ -5632,10 +5590,10 @@
         <v>100</v>
       </c>
       <c r="J55" t="n">
-        <v>100</v>
+        <v>74.05</v>
       </c>
       <c r="K55" t="n">
-        <v>100</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -5644,13 +5602,13 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>100</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="O55" t="n">
         <v>100</v>
       </c>
       <c r="P55" t="n">
-        <v>80</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5661,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>100</v>
+        <v>94.25</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -5676,12 +5634,12 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>MAN 1 OKU</t>
+          <t>MTSN 1 OKU</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>MAN 1 OKU (424245)</t>
+          <t>MTSN 1 OKU (426050)</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -5689,36 +5647,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>21</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>109</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>419006</t>
+          <t>418458</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>91.70999999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>100</v>
+        <v>93.16</v>
       </c>
       <c r="H56" t="n">
         <v>100</v>
@@ -5727,10 +5684,10 @@
         <v>100</v>
       </c>
       <c r="J56" t="n">
-        <v>100</v>
+        <v>83.42</v>
       </c>
       <c r="K56" t="n">
-        <v>100</v>
+        <v>92.05</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5739,13 +5696,13 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>100</v>
+        <v>94.27</v>
       </c>
       <c r="O56" t="n">
         <v>100</v>
       </c>
       <c r="P56" t="n">
-        <v>80</v>
+        <v>75.34999999999999</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5756,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>100</v>
+        <v>94.19</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -5771,12 +5728,12 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>BAWASLU OKU</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>BAWASLU OKU (419006)</t>
+          <t>KEMENAG OKU (418458)</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -5784,36 +5741,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>109</v>
+      </c>
+      <c r="C57" t="n">
+        <v>25</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>418471</t>
+          <t>553792</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>92.45</v>
       </c>
       <c r="G57" t="n">
-        <v>100</v>
+        <v>93.67</v>
       </c>
       <c r="H57" t="n">
         <v>100</v>
@@ -5822,10 +5778,10 @@
         <v>100</v>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>100</v>
+        <v>87.33</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5840,7 +5796,7 @@
         <v>100</v>
       </c>
       <c r="P57" t="n">
-        <v>80</v>
+        <v>75.2</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5851,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5866,12 +5822,12 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT</t>
+          <t>MTSN 1 OKUS</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT (418471)</t>
+          <t>MTSN 1 OKUS (553792)</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -5879,36 +5835,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>19</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>109</v>
+      </c>
+      <c r="C58" t="n">
+        <v>66</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>418462</t>
+          <t>111079</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
+          <t>BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>84.28</v>
       </c>
       <c r="G58" t="n">
-        <v>100</v>
+        <v>99.25</v>
       </c>
       <c r="H58" t="n">
         <v>100</v>
@@ -5917,7 +5872,7 @@
         <v>100</v>
       </c>
       <c r="J58" t="n">
-        <v>100</v>
+        <v>68.56</v>
       </c>
       <c r="K58" t="n">
         <v>100</v>
@@ -5929,13 +5884,13 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>100</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="O58" t="n">
         <v>100</v>
       </c>
       <c r="P58" t="n">
-        <v>80</v>
+        <v>75.13</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5946,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>100</v>
+        <v>93.92</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5961,12 +5916,12 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS</t>
+          <t>BNN OKUT</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS (418462)</t>
+          <t>BNN OKUT (111079)</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -5974,36 +5929,35 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>18</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>109</v>
+      </c>
+      <c r="C59" t="n">
+        <v>25</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>418461</t>
+          <t>597558</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>MADRASAH ALIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>86.48</v>
       </c>
       <c r="G59" t="n">
-        <v>100</v>
+        <v>96.39</v>
       </c>
       <c r="H59" t="n">
         <v>100</v>
@@ -6012,10 +5966,10 @@
         <v>100</v>
       </c>
       <c r="J59" t="n">
-        <v>100</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>100</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -6024,13 +5978,13 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>100</v>
+        <v>94.62</v>
       </c>
       <c r="O59" t="n">
         <v>100</v>
       </c>
       <c r="P59" t="n">
-        <v>80</v>
+        <v>75.04000000000001</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -6041,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>100</v>
+        <v>93.8</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -6056,12 +6010,12 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>MAN 2 OKUS</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418461)</t>
+          <t>MAN 2 OKUS (597558)</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -6069,48 +6023,47 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B60" t="n">
+        <v>109</v>
+      </c>
+      <c r="C60" t="n">
+        <v>25</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>440503</t>
+          <t>666501</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>94.73</v>
       </c>
       <c r="G60" t="n">
-        <v>100</v>
+        <v>91.05</v>
       </c>
       <c r="H60" t="n">
-        <v>95.88</v>
+        <v>93</v>
       </c>
       <c r="I60" t="n">
         <v>100</v>
       </c>
       <c r="J60" t="n">
-        <v>100</v>
+        <v>89.45999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -6119,13 +6072,13 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>100</v>
+        <v>82.11</v>
       </c>
       <c r="O60" t="n">
-        <v>95.88</v>
+        <v>93</v>
       </c>
       <c r="P60" t="n">
-        <v>78.97</v>
+        <v>74.88</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -6136,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>98.70999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -6151,12 +6104,12 @@
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440503)</t>
+          <t>KEMENAG OKUT (666501)</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -6164,74 +6117,73 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
+      <c r="B61" t="n">
+        <v>109</v>
+      </c>
+      <c r="C61" t="n">
+        <v>115</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>686503</t>
+          <t>419006</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU SELATAN</t>
+          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>85.8</v>
       </c>
       <c r="G61" t="n">
-        <v>100</v>
+        <v>93.92</v>
       </c>
       <c r="H61" t="n">
-        <v>95.33</v>
+        <v>100</v>
       </c>
       <c r="I61" t="n">
         <v>100</v>
       </c>
       <c r="J61" t="n">
-        <v>100</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>100</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>100</v>
+        <v>76.03</v>
       </c>
       <c r="O61" t="n">
-        <v>95.33</v>
+        <v>100</v>
       </c>
       <c r="P61" t="n">
-        <v>78.83</v>
+        <v>93.27</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R61" t="n">
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>98.54000000000001</v>
+        <v>93.27</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -6246,12 +6198,12 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS</t>
+          <t>BAWASLU OKU</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS (686503)</t>
+          <t>BAWASLU OKU (419006)</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -6259,48 +6211,47 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>012</t>
-        </is>
+      <c r="B62" t="n">
+        <v>109</v>
+      </c>
+      <c r="C62" t="n">
+        <v>24</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>685001</t>
+          <t>690801</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PUSLATPUR KODIKLATAD</t>
+          <t>LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>88.12</v>
       </c>
       <c r="G62" t="n">
-        <v>100</v>
+        <v>96.02</v>
       </c>
       <c r="H62" t="n">
-        <v>87.83</v>
+        <v>98.09</v>
       </c>
       <c r="I62" t="n">
         <v>100</v>
       </c>
       <c r="J62" t="n">
-        <v>100</v>
+        <v>76.23</v>
       </c>
       <c r="K62" t="n">
-        <v>100</v>
+        <v>89.09</v>
       </c>
       <c r="L62" t="n">
         <v>100</v>
@@ -6309,24 +6260,24 @@
         <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O62" t="n">
-        <v>87.83</v>
+        <v>98.09</v>
       </c>
       <c r="P62" t="n">
-        <v>86.95999999999999</v>
+        <v>93.27</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R62" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>96.62</v>
+        <v>93.27</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -6341,12 +6292,12 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>PUSLATPUR AD</t>
+          <t>LOKA LABKESMAS</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>PUSLATPUR AD (685001)</t>
+          <t>LOKA LABKESMAS (690801)</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -6354,48 +6305,47 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B63" t="n">
+        <v>109</v>
+      </c>
+      <c r="C63" t="n">
+        <v>25</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>418456</t>
+          <t>574370</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>85.41</v>
       </c>
       <c r="G63" t="n">
-        <v>100</v>
+        <v>89.62</v>
       </c>
       <c r="H63" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I63" t="n">
         <v>100</v>
       </c>
       <c r="J63" t="n">
-        <v>100</v>
+        <v>70.81</v>
       </c>
       <c r="K63" t="n">
-        <v>100</v>
+        <v>92.61</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -6404,13 +6354,13 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>100</v>
+        <v>86.63</v>
       </c>
       <c r="O63" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="P63" t="n">
-        <v>76.5</v>
+        <v>72.81</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6421,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>95.63</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -6436,12 +6386,12 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>MTSN 3 OKUS</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418456)</t>
+          <t>MTSN 3 OKUS (574370)</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -6449,48 +6399,47 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B64" t="n">
+        <v>109</v>
+      </c>
+      <c r="C64" t="n">
+        <v>5</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>418458</t>
+          <t>099228</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>100</v>
+        <v>89.58</v>
       </c>
       <c r="H64" t="n">
-        <v>82.5</v>
+        <v>99.52</v>
       </c>
       <c r="I64" t="n">
         <v>100</v>
       </c>
       <c r="J64" t="n">
-        <v>100</v>
+        <v>77.42</v>
       </c>
       <c r="K64" t="n">
-        <v>100</v>
+        <v>83.48</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -6499,13 +6448,13 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>100</v>
+        <v>95.67</v>
       </c>
       <c r="O64" t="n">
-        <v>82.5</v>
+        <v>99.52</v>
       </c>
       <c r="P64" t="n">
-        <v>75.63</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6516,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>94.53</v>
+        <v>90.95</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -6531,12 +6480,12 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418458)</t>
+          <t>PN BATURAJA ('099228)</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -6544,48 +6493,47 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>076</t>
-        </is>
+      <c r="B65" t="n">
+        <v>109</v>
+      </c>
+      <c r="C65" t="n">
+        <v>25</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>666502</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>86.59</v>
       </c>
       <c r="G65" t="n">
-        <v>100</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>76.67</v>
+        <v>98.08</v>
       </c>
       <c r="I65" t="n">
         <v>100</v>
       </c>
       <c r="J65" t="n">
-        <v>100</v>
+        <v>73.18000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>100</v>
+        <v>83.95</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -6594,13 +6542,13 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>100</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="O65" t="n">
-        <v>76.67</v>
+        <v>98.08</v>
       </c>
       <c r="P65" t="n">
-        <v>74.17</v>
+        <v>72.22</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6611,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>92.70999999999999</v>
+        <v>90.28</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -6626,12 +6574,12 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>KPU OKUT</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>KPU OKUT (656560)</t>
+          <t>KEMENAG OKUT (666502)</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -6639,48 +6587,47 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B66" t="n">
+        <v>109</v>
+      </c>
+      <c r="C66" t="n">
+        <v>25</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>553099</t>
+          <t>418457</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>100</v>
+        <v>82.16</v>
       </c>
       <c r="H66" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="I66" t="n">
         <v>100</v>
       </c>
       <c r="J66" t="n">
-        <v>100</v>
+        <v>72.97</v>
       </c>
       <c r="K66" t="n">
-        <v>100</v>
+        <v>81.78</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -6689,13 +6636,13 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>100</v>
+        <v>82.53</v>
       </c>
       <c r="O66" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="P66" t="n">
-        <v>71.25</v>
+        <v>70.55</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6706,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>89.06</v>
+        <v>88.19</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -6721,12 +6668,12 @@
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUT (553099)</t>
+          <t>KEMENAG OKU (418457)</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -6734,48 +6681,47 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B67" t="n">
+        <v>109</v>
+      </c>
+      <c r="C67" t="n">
+        <v>25</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>597480</t>
+          <t>666507</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>100</v>
+        <v>77.78</v>
       </c>
       <c r="H67" t="n">
-        <v>65</v>
+        <v>89.66</v>
       </c>
       <c r="I67" t="n">
         <v>100</v>
       </c>
       <c r="J67" t="n">
-        <v>100</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>100</v>
+        <v>81.58</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -6784,13 +6730,13 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>100</v>
+        <v>73.97</v>
       </c>
       <c r="O67" t="n">
-        <v>65</v>
+        <v>89.66</v>
       </c>
       <c r="P67" t="n">
-        <v>71.25</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6801,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>89.06</v>
+        <v>85.54000000000001</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -6816,12 +6762,12 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUT</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUT (597480)</t>
+          <t>KEMENAG OKUT (666507)</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -6829,48 +6775,47 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
+      <c r="B68" t="n">
+        <v>109</v>
+      </c>
+      <c r="C68" t="n">
+        <v>25</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>662127</t>
+          <t>418461</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>82.73</v>
       </c>
       <c r="G68" t="n">
-        <v>100</v>
+        <v>81.33</v>
       </c>
       <c r="H68" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I68" t="n">
         <v>100</v>
       </c>
       <c r="J68" t="n">
-        <v>100</v>
+        <v>65.45</v>
       </c>
       <c r="K68" t="n">
-        <v>100</v>
+        <v>68.33</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -6879,13 +6824,13 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>100</v>
+        <v>94.33</v>
       </c>
       <c r="O68" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="P68" t="n">
-        <v>62.5</v>
+        <v>67.92</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -6896,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>78.13</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -6911,12 +6856,12 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS (662127)</t>
+          <t>KEMENAG OKU (418461)</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -6924,20 +6869,19 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
+      <c r="B69" t="n">
+        <v>109</v>
+      </c>
+      <c r="C69" t="n">
+        <v>152</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6950,22 +6894,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G69" t="n">
-        <v>100</v>
+        <v>33.33</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I69" t="n">
         <v>100</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K69" t="n">
-        <v>100</v>
+        <v>33.33</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -6974,13 +6918,13 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P69" t="n">
-        <v>30</v>
+        <v>50.67</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6991,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>42.86</v>
+        <v>72.38</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -7019,6 +6963,9 @@
           <t>Upload</t>
         </is>
       </c>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
